--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>77.63718533333333</v>
+        <v>24.999262</v>
       </c>
       <c r="H2">
-        <v>232.911556</v>
+        <v>74.997786</v>
       </c>
       <c r="I2">
-        <v>0.4513549673384918</v>
+        <v>0.2094245171924971</v>
       </c>
       <c r="J2">
-        <v>0.4513549673384918</v>
+        <v>0.209424517192497</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.465868666666666</v>
+        <v>5.353120999999999</v>
       </c>
       <c r="N2">
-        <v>13.397606</v>
+        <v>16.059363</v>
       </c>
       <c r="O2">
-        <v>0.3171934613136183</v>
+        <v>0.3576717770696169</v>
       </c>
       <c r="P2">
-        <v>0.3171934613136182</v>
+        <v>0.3576717770696169</v>
       </c>
       <c r="Q2">
-        <v>346.7174733483262</v>
+        <v>133.824074396702</v>
       </c>
       <c r="R2">
-        <v>3120.457260134936</v>
+        <v>1204.416669570318</v>
       </c>
       <c r="S2">
-        <v>0.1431668443711913</v>
+        <v>0.07490523922618697</v>
       </c>
       <c r="T2">
-        <v>0.1431668443711913</v>
+        <v>0.07490523922618696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>77.63718533333333</v>
+        <v>24.999262</v>
       </c>
       <c r="H3">
-        <v>232.911556</v>
+        <v>74.997786</v>
       </c>
       <c r="I3">
-        <v>0.4513549673384918</v>
+        <v>0.2094245171924971</v>
       </c>
       <c r="J3">
-        <v>0.4513549673384918</v>
+        <v>0.209424517192497</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>20.104864</v>
       </c>
       <c r="O3">
-        <v>0.4759903673387287</v>
+        <v>0.4477725819276249</v>
       </c>
       <c r="P3">
-        <v>0.4759903673387287</v>
+        <v>0.4477725819276249</v>
       </c>
       <c r="Q3">
-        <v>520.2950174898205</v>
+        <v>167.5355875367893</v>
       </c>
       <c r="R3">
-        <v>4682.655157408384</v>
+        <v>1507.820287831104</v>
       </c>
       <c r="S3">
-        <v>0.2148406167036087</v>
+        <v>0.09377455678223068</v>
       </c>
       <c r="T3">
-        <v>0.2148406167036086</v>
+        <v>0.09377455678223065</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>77.63718533333333</v>
+        <v>24.999262</v>
       </c>
       <c r="H4">
-        <v>232.911556</v>
+        <v>74.997786</v>
       </c>
       <c r="I4">
-        <v>0.4513549673384918</v>
+        <v>0.2094245171924971</v>
       </c>
       <c r="J4">
-        <v>0.4513549673384918</v>
+        <v>0.209424517192497</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>8.735493999999999</v>
       </c>
       <c r="O4">
-        <v>0.206816171347653</v>
+        <v>0.1945556410027581</v>
       </c>
       <c r="P4">
-        <v>0.206816171347653</v>
+        <v>0.1945556410027581</v>
       </c>
       <c r="Q4">
-        <v>226.0663888854071</v>
+        <v>72.79363440180934</v>
       </c>
       <c r="R4">
-        <v>2034.597499968664</v>
+        <v>655.142709616284</v>
       </c>
       <c r="S4">
-        <v>0.09334750626369187</v>
+        <v>0.0407447211840794</v>
       </c>
       <c r="T4">
-        <v>0.09334750626369184</v>
+        <v>0.0407447211840794</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>187.224476</v>
       </c>
       <c r="I5">
-        <v>0.3628188257432201</v>
+        <v>0.522807373179233</v>
       </c>
       <c r="J5">
-        <v>0.3628188257432201</v>
+        <v>0.5228073731792329</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.465868666666666</v>
+        <v>5.353120999999999</v>
       </c>
       <c r="N5">
-        <v>13.397606</v>
+        <v>16.059363</v>
       </c>
       <c r="O5">
-        <v>0.3171934613136183</v>
+        <v>0.3576717770696169</v>
       </c>
       <c r="P5">
-        <v>0.3171934613136182</v>
+        <v>0.3576717770696169</v>
       </c>
       <c r="Q5">
-        <v>278.7066403338284</v>
+        <v>334.0784247298653</v>
       </c>
       <c r="R5">
-        <v>2508.359763004456</v>
+        <v>3006.705822568788</v>
       </c>
       <c r="S5">
-        <v>0.1150837591672345</v>
+        <v>0.1869934422301147</v>
       </c>
       <c r="T5">
-        <v>0.1150837591672345</v>
+        <v>0.1869934422301146</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>187.224476</v>
       </c>
       <c r="I6">
-        <v>0.3628188257432201</v>
+        <v>0.522807373179233</v>
       </c>
       <c r="J6">
-        <v>0.3628188257432201</v>
+        <v>0.5228073731792329</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>20.104864</v>
       </c>
       <c r="O6">
-        <v>0.4759903673387287</v>
+        <v>0.4477725819276249</v>
       </c>
       <c r="P6">
-        <v>0.4759903673387287</v>
+        <v>0.4477725819276249</v>
       </c>
       <c r="Q6">
         <v>418.2358474945849</v>
@@ -818,10 +818,10 @@
         <v>3764.122627451264</v>
       </c>
       <c r="S6">
-        <v>0.1726982661429216</v>
+        <v>0.2340988073392645</v>
       </c>
       <c r="T6">
-        <v>0.1726982661429215</v>
+        <v>0.2340988073392644</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>187.224476</v>
       </c>
       <c r="I7">
-        <v>0.3628188257432201</v>
+        <v>0.522807373179233</v>
       </c>
       <c r="J7">
-        <v>0.3628188257432201</v>
+        <v>0.5228073731792329</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>8.735493999999999</v>
       </c>
       <c r="O7">
-        <v>0.206816171347653</v>
+        <v>0.1945556410027581</v>
       </c>
       <c r="P7">
-        <v>0.206816171347653</v>
+        <v>0.1945556410027581</v>
       </c>
       <c r="Q7">
         <v>181.7220318612382</v>
@@ -880,10 +880,10 @@
         <v>1635.498286751144</v>
       </c>
       <c r="S7">
-        <v>0.07503680043306409</v>
+        <v>0.1017151236098539</v>
       </c>
       <c r="T7">
-        <v>0.07503680043306406</v>
+        <v>0.1017151236098538</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>95.891425</v>
       </c>
       <c r="I8">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="J8">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.465868666666666</v>
+        <v>5.353120999999999</v>
       </c>
       <c r="N8">
-        <v>13.397606</v>
+        <v>16.059363</v>
       </c>
       <c r="O8">
-        <v>0.3171934613136183</v>
+        <v>0.3576717770696169</v>
       </c>
       <c r="P8">
-        <v>0.3171934613136182</v>
+        <v>0.3576717770696169</v>
       </c>
       <c r="Q8">
-        <v>142.7461701031722</v>
+        <v>171.1061336291416</v>
       </c>
       <c r="R8">
-        <v>1284.71553092855</v>
+        <v>1539.955202662275</v>
       </c>
       <c r="S8">
-        <v>0.05894285777519243</v>
+        <v>0.09577309561331537</v>
       </c>
       <c r="T8">
-        <v>0.05894285777519241</v>
+        <v>0.09577309561331537</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>95.891425</v>
       </c>
       <c r="I9">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="J9">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>20.104864</v>
       </c>
       <c r="O9">
-        <v>0.4759903673387287</v>
+        <v>0.4477725819276249</v>
       </c>
       <c r="P9">
-        <v>0.4759903673387287</v>
+        <v>0.4477725819276249</v>
       </c>
       <c r="Q9">
         <v>214.2093398212444</v>
@@ -1004,10 +1004,10 @@
         <v>1927.8840583912</v>
       </c>
       <c r="S9">
-        <v>0.08845148449219856</v>
+        <v>0.1198992178061298</v>
       </c>
       <c r="T9">
-        <v>0.08845148449219853</v>
+        <v>0.1198992178061298</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>95.891425</v>
       </c>
       <c r="I10">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="J10">
-        <v>0.1858262069182881</v>
+        <v>0.2677681096282701</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>8.735493999999999</v>
       </c>
       <c r="O10">
-        <v>0.206816171347653</v>
+        <v>0.1945556410027581</v>
       </c>
       <c r="P10">
-        <v>0.206816171347653</v>
+        <v>0.1945556410027581</v>
       </c>
       <c r="Q10">
         <v>93.0732186376611</v>
@@ -1066,10 +1066,10 @@
         <v>837.6589677389499</v>
       </c>
       <c r="S10">
-        <v>0.0384318646508971</v>
+        <v>0.05209579620882489</v>
       </c>
       <c r="T10">
-        <v>0.03843186465089708</v>
+        <v>0.05209579620882489</v>
       </c>
     </row>
   </sheetData>
